--- a/mid/dim/mid_dim_project_hierarchy.xlsx
+++ b/mid/dim/mid_dim_project_hierarchy.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="308">
   <si>
     <t>project_name</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>川陕区域公司</t>
+  </si>
+  <si>
+    <t>四川</t>
   </si>
   <si>
     <t>成都</t>
@@ -977,10 +980,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="24">
@@ -995,22 +998,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1022,6 +1009,22 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1046,17 +1049,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,10 +1087,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1086,7 +1119,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1094,10 +1127,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1110,37 +1143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,13 +1175,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,37 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,109 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,12 +1359,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1363,6 +1366,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1381,17 +1399,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,8 +1411,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,30 +1449,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1458,141 +1461,135 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,13 +1598,19 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,7 +1942,7 @@
   <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2297,10 +2300,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -2350,28 +2353,28 @@
         <v>49</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8" s="3">
         <v>44172</v>
@@ -2382,7 +2385,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -2403,28 +2406,28 @@
         <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="3">
         <v>44172</v>
@@ -2435,7 +2438,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -2456,28 +2459,28 @@
         <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" s="3">
         <v>44172</v>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -2506,31 +2509,31 @@
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
         <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P11" s="3">
         <v>44172</v>
@@ -2541,49 +2544,49 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="L12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="M12" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="N12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
-        <v>57</v>
-      </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P12" s="3">
         <v>44172</v>
@@ -2594,13 +2597,13 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -2615,28 +2618,28 @@
         <v>23</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" s="3">
         <v>44172</v>
@@ -2647,16 +2650,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -2665,31 +2668,31 @@
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="3">
         <v>44172</v>
@@ -2700,13 +2703,13 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2721,28 +2724,28 @@
         <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
         <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P15" s="3">
         <v>44172</v>
@@ -2753,16 +2756,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -2774,28 +2777,28 @@
         <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="3">
         <v>44151</v>
@@ -2809,16 +2812,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -2830,28 +2833,28 @@
         <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="3">
         <v>44151</v>
@@ -2865,16 +2868,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -2886,28 +2889,28 @@
         <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="3">
         <v>44151</v>
@@ -2921,16 +2924,16 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -2942,28 +2945,28 @@
         <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="3">
         <v>44151</v>
@@ -2977,16 +2980,16 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -2998,28 +3001,28 @@
         <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
         <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P20" s="3">
         <v>44151</v>
@@ -3033,16 +3036,16 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -3054,28 +3057,28 @@
         <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="3">
         <v>44151</v>
@@ -3089,16 +3092,16 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -3110,28 +3113,28 @@
         <v>41</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22" s="3">
         <v>44253</v>
@@ -3145,16 +3148,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -3166,28 +3169,28 @@
         <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P23" s="3">
         <v>44253</v>
@@ -3201,16 +3204,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -3222,28 +3225,28 @@
         <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s">
         <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="3">
         <v>44172</v>
@@ -3254,16 +3257,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
@@ -3275,28 +3278,28 @@
         <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P25" s="3">
         <v>44172</v>
@@ -3307,16 +3310,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -3328,28 +3331,28 @@
         <v>41</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
         <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P26" s="3">
         <v>44172</v>
@@ -3360,13 +3363,13 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -3381,28 +3384,28 @@
         <v>23</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P27" s="3">
         <v>44172</v>
@@ -3413,13 +3416,13 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -3434,28 +3437,28 @@
         <v>23</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J28" t="s">
         <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P28" s="3">
         <v>44172</v>
@@ -3466,13 +3469,13 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -3487,28 +3490,28 @@
         <v>23</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P29" s="3">
         <v>44172</v>
@@ -3519,13 +3522,13 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -3540,28 +3543,28 @@
         <v>23</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
         <v>100</v>
       </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" t="s">
-        <v>99</v>
-      </c>
       <c r="L30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P30" s="3">
         <v>44172</v>
@@ -3572,13 +3575,13 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -3593,28 +3596,28 @@
         <v>23</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P31" s="3">
         <v>44172</v>
@@ -3625,13 +3628,13 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -3646,28 +3649,28 @@
         <v>23</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
         <v>26</v>
       </c>
       <c r="K32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P32" s="3">
         <v>44172</v>
@@ -3678,13 +3681,13 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -3699,28 +3702,28 @@
         <v>23</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
         <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P33" s="3">
         <v>44172</v>
@@ -3731,13 +3734,13 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -3752,28 +3755,28 @@
         <v>23</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
         <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P34" s="3">
         <v>44172</v>
@@ -3784,13 +3787,13 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -3805,28 +3808,28 @@
         <v>23</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P35" s="3">
         <v>44172</v>
@@ -3837,13 +3840,13 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -3858,28 +3861,28 @@
         <v>23</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P36" s="3">
         <v>44172</v>
@@ -3890,13 +3893,13 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -3911,28 +3914,28 @@
         <v>23</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J37" t="s">
         <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P37" s="3">
         <v>44172</v>
@@ -3943,13 +3946,13 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -3964,28 +3967,28 @@
         <v>23</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
         <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P38" s="3">
         <v>44172</v>
@@ -3996,7 +3999,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -4014,31 +4017,31 @@
         <v>22</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J39" t="s">
         <v>33</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P39" s="3">
         <v>44172</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -4067,31 +4070,31 @@
         <v>22</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P40" s="3">
         <v>44172</v>
@@ -4102,13 +4105,13 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
@@ -4123,28 +4126,28 @@
         <v>23</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J41" t="s">
         <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P41" s="3">
         <v>44172</v>
@@ -4155,13 +4158,13 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
@@ -4176,28 +4179,28 @@
         <v>23</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J42" t="s">
         <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P42" s="3">
         <v>44172</v>
@@ -4208,13 +4211,13 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -4229,28 +4232,28 @@
         <v>23</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P43" s="3">
         <v>44172</v>
@@ -4261,13 +4264,13 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -4282,28 +4285,28 @@
         <v>23</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
         <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P44" s="3">
         <v>44151</v>
@@ -4317,13 +4320,13 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -4338,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
         <v>124</v>
       </c>
-      <c r="J45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" t="s">
-        <v>123</v>
-      </c>
       <c r="L45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P45" s="3">
         <v>44172</v>
@@ -4370,13 +4373,13 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -4391,28 +4394,28 @@
         <v>23</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J46" t="s">
         <v>26</v>
       </c>
       <c r="K46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P46" s="3">
         <v>44172</v>
@@ -4423,13 +4426,13 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -4444,28 +4447,28 @@
         <v>23</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J47" t="s">
         <v>26</v>
       </c>
       <c r="K47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P47" s="3">
         <v>44172</v>
@@ -4476,49 +4479,49 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
         <v>128</v>
       </c>
-      <c r="C48" t="s">
+      <c r="L48" t="s">
         <v>128</v>
       </c>
-      <c r="D48" t="s">
+      <c r="M48" t="s">
         <v>128</v>
       </c>
-      <c r="E48" t="s">
+      <c r="N48" t="s">
         <v>128</v>
       </c>
-      <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" t="s">
-        <v>127</v>
-      </c>
-      <c r="M48" t="s">
-        <v>127</v>
-      </c>
-      <c r="N48" t="s">
-        <v>127</v>
-      </c>
       <c r="O48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P48" s="3">
         <v>44172</v>
@@ -4529,16 +4532,16 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -4547,31 +4550,31 @@
         <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P49" s="3">
         <v>44172</v>
@@ -4582,16 +4585,16 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
@@ -4603,28 +4606,28 @@
         <v>41</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s">
         <v>26</v>
       </c>
       <c r="K50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P50" s="3">
         <v>44172</v>
@@ -4635,16 +4638,16 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C51" t="s">
-        <v>137</v>
-      </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
@@ -4656,28 +4659,28 @@
         <v>41</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s">
         <v>26</v>
       </c>
       <c r="K51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P51" s="3">
         <v>44172</v>
@@ -4688,16 +4691,16 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
         <v>140</v>
       </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
         <v>40</v>
@@ -4709,28 +4712,28 @@
         <v>41</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" t="s">
         <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P52" s="3">
         <v>44172</v>
@@ -4741,16 +4744,16 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
         <v>40</v>
@@ -4762,28 +4765,28 @@
         <v>41</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s">
         <v>26</v>
       </c>
       <c r="K53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P53" s="3">
         <v>44172</v>
@@ -4794,16 +4797,16 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
         <v>40</v>
@@ -4815,28 +4818,28 @@
         <v>41</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J54" t="s">
         <v>26</v>
       </c>
       <c r="K54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P54" s="3">
         <v>44172</v>
@@ -4847,16 +4850,16 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
         <v>36</v>
@@ -4865,31 +4868,31 @@
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J55" t="s">
         <v>26</v>
       </c>
       <c r="K55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P55" s="3">
         <v>44253</v>
@@ -4903,16 +4906,16 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
@@ -4921,31 +4924,31 @@
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J56" t="s">
         <v>26</v>
       </c>
       <c r="K56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P56" s="3">
         <v>44172</v>
@@ -4956,16 +4959,16 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -4974,31 +4977,31 @@
         <v>22</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J57" t="s">
         <v>26</v>
       </c>
       <c r="K57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P57" s="3">
         <v>44172</v>
@@ -5009,13 +5012,13 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
         <v>20</v>
@@ -5030,28 +5033,28 @@
         <v>23</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J58" t="s">
         <v>26</v>
       </c>
       <c r="K58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P58" s="3">
         <v>44172</v>
@@ -5062,13 +5065,13 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
         <v>20</v>
@@ -5083,28 +5086,28 @@
         <v>23</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J59" t="s">
         <v>26</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P59" s="3">
         <v>44172</v>
@@ -5115,13 +5118,13 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
         <v>20</v>
@@ -5136,28 +5139,28 @@
         <v>23</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J60" t="s">
         <v>26</v>
       </c>
       <c r="K60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P60" s="3">
         <v>44172</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -5189,28 +5192,28 @@
         <v>23</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J61" t="s">
         <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P61" s="3">
         <v>44172</v>
@@ -5221,13 +5224,13 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
@@ -5242,28 +5245,28 @@
         <v>23</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
         <v>26</v>
       </c>
       <c r="K62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P62" s="3">
         <v>44172</v>
@@ -5274,13 +5277,13 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -5295,28 +5298,28 @@
         <v>23</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
         <v>164</v>
       </c>
-      <c r="J63" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" t="s">
-        <v>163</v>
-      </c>
       <c r="L63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P63" s="3">
         <v>44151</v>
@@ -5330,13 +5333,13 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -5351,28 +5354,28 @@
         <v>23</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J64" t="s">
         <v>26</v>
       </c>
       <c r="K64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P64" s="3">
         <v>44172</v>
@@ -5383,16 +5386,16 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
         <v>40</v>
@@ -5404,28 +5407,28 @@
         <v>41</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
         <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P65" s="3">
         <v>44172</v>
@@ -5436,16 +5439,16 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E66" t="s">
         <v>40</v>
@@ -5457,28 +5460,28 @@
         <v>41</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J66" t="s">
         <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P66" s="3">
         <v>44172</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -5507,31 +5510,31 @@
         <v>22</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J67" t="s">
         <v>33</v>
       </c>
       <c r="K67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P67" s="3">
         <v>44172</v>
@@ -5542,49 +5545,49 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J68" t="s">
         <v>26</v>
       </c>
       <c r="K68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P68" s="3">
         <v>44172</v>
@@ -5595,49 +5598,49 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J69" t="s">
         <v>26</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P69" s="3">
         <v>44151</v>
@@ -5651,49 +5654,49 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J70" t="s">
         <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P70" s="3">
         <v>44172</v>
@@ -5704,16 +5707,16 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -5725,28 +5728,28 @@
         <v>23</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J71" t="s">
         <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P71" s="3">
         <v>44253</v>
@@ -5760,16 +5763,16 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -5781,28 +5784,28 @@
         <v>23</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J72" t="s">
         <v>26</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P72" s="3">
         <v>44253</v>
@@ -5816,16 +5819,16 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -5837,28 +5840,28 @@
         <v>23</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J73" t="s">
         <v>26</v>
       </c>
       <c r="K73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P73" s="3">
         <v>44253</v>
@@ -5872,16 +5875,16 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
@@ -5893,28 +5896,28 @@
         <v>23</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J74" t="s">
         <v>26</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P74" s="3">
         <v>44151</v>
@@ -5928,16 +5931,16 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
@@ -5949,28 +5952,28 @@
         <v>23</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J75" t="s">
         <v>26</v>
       </c>
       <c r="K75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P75" s="3">
         <v>44172</v>
@@ -5981,16 +5984,16 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
         <v>21</v>
@@ -6002,28 +6005,28 @@
         <v>23</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J76" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P76" s="3">
         <v>44253</v>
@@ -6037,16 +6040,16 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -6058,28 +6061,28 @@
         <v>23</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J77" t="s">
         <v>26</v>
       </c>
       <c r="K77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P77" s="3">
         <v>44172</v>
@@ -6090,16 +6093,16 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
@@ -6111,28 +6114,28 @@
         <v>23</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J78" t="s">
         <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P78" s="3">
         <v>44172</v>
@@ -6143,16 +6146,16 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
         <v>21</v>
@@ -6164,28 +6167,28 @@
         <v>23</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P79" s="3">
         <v>44172</v>
@@ -6196,16 +6199,16 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
         <v>21</v>
@@ -6217,28 +6220,28 @@
         <v>23</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J80" t="s">
         <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P80" s="3">
         <v>44151</v>
@@ -6252,16 +6255,16 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
         <v>21</v>
@@ -6273,28 +6276,28 @@
         <v>23</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J81" t="s">
         <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>44172</v>
@@ -6305,16 +6308,16 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
         <v>21</v>
@@ -6326,28 +6329,28 @@
         <v>23</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J82" t="s">
         <v>26</v>
       </c>
       <c r="K82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P82" s="3">
         <v>44172</v>
@@ -6358,16 +6361,16 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -6379,28 +6382,28 @@
         <v>23</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J83" t="s">
         <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P83" s="3">
         <v>44172</v>
@@ -6411,16 +6414,16 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
         <v>21</v>
@@ -6432,28 +6435,28 @@
         <v>23</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J84" t="s">
         <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P84" s="3">
         <v>44172</v>
@@ -6464,16 +6467,16 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" t="s">
         <v>205</v>
       </c>
-      <c r="B85" t="s">
-        <v>204</v>
-      </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -6485,28 +6488,28 @@
         <v>23</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J85" t="s">
         <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P85" s="3">
         <v>44172</v>
@@ -6517,16 +6520,16 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -6538,28 +6541,28 @@
         <v>23</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J86" t="s">
         <v>26</v>
       </c>
       <c r="K86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P86" s="3">
         <v>44172</v>
@@ -6570,16 +6573,16 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
@@ -6591,28 +6594,28 @@
         <v>23</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J87" t="s">
         <v>26</v>
       </c>
       <c r="K87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P87" s="3">
         <v>44151</v>
@@ -6626,16 +6629,16 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B88" t="s">
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
@@ -6647,28 +6650,28 @@
         <v>23</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I88" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" t="s">
         <v>209</v>
       </c>
-      <c r="J88" t="s">
-        <v>26</v>
-      </c>
-      <c r="K88" t="s">
-        <v>208</v>
-      </c>
       <c r="L88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P88" s="3">
         <v>44253</v>
@@ -6682,7 +6685,7 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B89" t="s">
         <v>28</v>
@@ -6703,28 +6706,28 @@
         <v>23</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J89" t="s">
         <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O89" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P89" s="3">
         <v>44172</v>
@@ -6735,16 +6738,16 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
@@ -6756,28 +6759,28 @@
         <v>23</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J90" t="s">
         <v>26</v>
       </c>
       <c r="K90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P90" s="3">
         <v>44172</v>
@@ -6788,7 +6791,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B91" t="s">
         <v>28</v>
@@ -6809,28 +6812,28 @@
         <v>23</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J91" t="s">
         <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P91" s="3">
         <v>44172</v>
@@ -6841,16 +6844,16 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
@@ -6862,28 +6865,28 @@
         <v>23</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P92" s="3">
         <v>44172</v>
@@ -6894,16 +6897,16 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
         <v>21</v>
@@ -6915,28 +6918,28 @@
         <v>23</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P93" s="3">
         <v>44172</v>
@@ -6947,16 +6950,16 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
         <v>21</v>
@@ -6968,28 +6971,28 @@
         <v>23</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J94" t="s">
         <v>26</v>
       </c>
       <c r="K94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P94" s="3">
         <v>44172</v>
@@ -7000,16 +7003,16 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
@@ -7021,28 +7024,28 @@
         <v>23</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
         <v>26</v>
       </c>
       <c r="K95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P95" s="3">
         <v>44172</v>
@@ -7053,16 +7056,16 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E96" t="s">
         <v>21</v>
@@ -7074,28 +7077,28 @@
         <v>23</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J96" t="s">
         <v>26</v>
       </c>
       <c r="K96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P96" s="3">
         <v>44172</v>
@@ -7106,16 +7109,16 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E97" t="s">
         <v>21</v>
@@ -7127,28 +7130,28 @@
         <v>23</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J97" t="s">
         <v>26</v>
       </c>
       <c r="K97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P97" s="3">
         <v>44172</v>
@@ -7159,16 +7162,16 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
@@ -7180,28 +7183,28 @@
         <v>23</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P98" s="3">
         <v>44172</v>
@@ -7212,16 +7215,16 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E99" t="s">
         <v>21</v>
@@ -7233,28 +7236,28 @@
         <v>23</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J99" t="s">
         <v>26</v>
       </c>
       <c r="K99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P99" s="3">
         <v>44151</v>
@@ -7268,16 +7271,16 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
@@ -7289,28 +7292,28 @@
         <v>23</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J100" t="s">
         <v>26</v>
       </c>
       <c r="K100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P100" s="3">
         <v>44172</v>
@@ -7321,16 +7324,16 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C101" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -7342,28 +7345,28 @@
         <v>23</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J101" t="s">
         <v>26</v>
       </c>
       <c r="K101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P101" s="3">
         <v>44172</v>
@@ -7374,16 +7377,16 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
@@ -7395,28 +7398,28 @@
         <v>23</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
         <v>26</v>
       </c>
       <c r="K102" t="s">
+        <v>227</v>
+      </c>
+      <c r="L102" t="s">
         <v>226</v>
       </c>
-      <c r="L102" t="s">
-        <v>225</v>
-      </c>
       <c r="M102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P102" s="3">
         <v>44172</v>
@@ -7427,7 +7430,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
@@ -7448,28 +7451,28 @@
         <v>23</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J103" t="s">
         <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P103" s="3">
         <v>44172</v>
@@ -7480,16 +7483,16 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -7501,28 +7504,28 @@
         <v>23</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J104" t="s">
         <v>26</v>
       </c>
       <c r="K104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P104" s="3">
         <v>44172</v>
@@ -7533,16 +7536,16 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
@@ -7554,28 +7557,28 @@
         <v>23</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J105" t="s">
         <v>26</v>
       </c>
       <c r="K105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P105" s="3">
         <v>44172</v>
@@ -7586,16 +7589,16 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -7607,28 +7610,28 @@
         <v>23</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J106" t="s">
         <v>26</v>
       </c>
       <c r="K106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P106" s="3">
         <v>44172</v>
@@ -7639,16 +7642,16 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -7660,28 +7663,28 @@
         <v>23</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P107" s="3">
         <v>44172</v>
@@ -7692,16 +7695,16 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -7713,28 +7716,28 @@
         <v>23</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J108" t="s">
         <v>26</v>
       </c>
       <c r="K108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P108" s="3">
         <v>44172</v>
@@ -7745,16 +7748,16 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E109" t="s">
         <v>21</v>
@@ -7766,28 +7769,28 @@
         <v>23</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J109" t="s">
         <v>26</v>
       </c>
       <c r="K109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P109" s="3">
         <v>44172</v>
@@ -7798,16 +7801,16 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
@@ -7819,28 +7822,28 @@
         <v>23</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J110" t="s">
         <v>26</v>
       </c>
       <c r="K110" t="s">
+        <v>237</v>
+      </c>
+      <c r="L110" t="s">
         <v>236</v>
       </c>
-      <c r="L110" t="s">
-        <v>235</v>
-      </c>
       <c r="M110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P110" s="3">
         <v>44172</v>
@@ -7851,16 +7854,16 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -7872,28 +7875,28 @@
         <v>23</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L111" t="s">
+        <v>238</v>
+      </c>
+      <c r="M111" t="s">
+        <v>238</v>
+      </c>
+      <c r="N111" t="s">
         <v>237</v>
       </c>
-      <c r="M111" t="s">
+      <c r="O111" t="s">
         <v>237</v>
-      </c>
-      <c r="N111" t="s">
-        <v>236</v>
-      </c>
-      <c r="O111" t="s">
-        <v>236</v>
       </c>
       <c r="P111" s="3">
         <v>44172</v>
@@ -7904,16 +7907,16 @@
     </row>
     <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
@@ -7925,28 +7928,28 @@
         <v>23</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J112" t="s">
         <v>26</v>
       </c>
       <c r="K112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P112" s="3">
         <v>44172</v>
@@ -7957,16 +7960,16 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
@@ -7978,28 +7981,28 @@
         <v>23</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J113" t="s">
         <v>26</v>
       </c>
       <c r="K113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P113" s="3">
         <v>44172</v>
@@ -8010,16 +8013,16 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E114" t="s">
         <v>21</v>
@@ -8031,28 +8034,28 @@
         <v>23</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J114" t="s">
         <v>26</v>
       </c>
       <c r="K114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P114" s="3">
         <v>44172</v>
@@ -8063,16 +8066,16 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
@@ -8084,28 +8087,28 @@
         <v>23</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J115" t="s">
         <v>26</v>
       </c>
       <c r="K115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P115" s="3">
         <v>44172</v>
@@ -8116,13 +8119,13 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -8137,28 +8140,28 @@
         <v>23</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J116" t="s">
         <v>26</v>
       </c>
       <c r="K116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P116" s="3">
         <v>44172</v>
@@ -8169,13 +8172,13 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D117" t="s">
         <v>20</v>
@@ -8190,28 +8193,28 @@
         <v>23</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I117" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J117" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" t="s">
         <v>247</v>
       </c>
-      <c r="J117" t="s">
-        <v>26</v>
-      </c>
-      <c r="K117" t="s">
-        <v>246</v>
-      </c>
       <c r="L117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P117" s="3">
         <v>44151</v>
@@ -8225,13 +8228,13 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
@@ -8246,28 +8249,28 @@
         <v>23</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J118" t="s">
         <v>26</v>
       </c>
       <c r="K118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P118" s="3">
         <v>44172</v>
@@ -8278,7 +8281,7 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
@@ -8299,28 +8302,28 @@
         <v>23</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J119" t="s">
         <v>33</v>
       </c>
       <c r="K119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P119" s="3">
         <v>44172</v>
@@ -8331,16 +8334,16 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B120" t="s">
         <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E120" t="s">
         <v>40</v>
@@ -8352,28 +8355,28 @@
         <v>41</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J120" t="s">
         <v>33</v>
       </c>
       <c r="K120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P120" s="3">
         <v>44253</v>
@@ -8387,7 +8390,7 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
         <v>28</v>
@@ -8408,28 +8411,28 @@
         <v>41</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J121" t="s">
         <v>33</v>
       </c>
       <c r="K121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P121" s="3">
         <v>44172</v>
@@ -8440,16 +8443,16 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E122" t="s">
         <v>21</v>
@@ -8461,28 +8464,28 @@
         <v>23</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J122" t="s">
         <v>26</v>
       </c>
       <c r="K122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P122" s="3">
         <v>44172</v>
@@ -8493,16 +8496,16 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D123" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E123" t="s">
         <v>21</v>
@@ -8514,28 +8517,28 @@
         <v>23</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J123" t="s">
         <v>26</v>
       </c>
       <c r="K123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P123" s="3">
         <v>44172</v>
@@ -8546,16 +8549,16 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B124" t="s">
         <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D124" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E124" t="s">
         <v>21</v>
@@ -8567,28 +8570,28 @@
         <v>23</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J124" t="s">
         <v>33</v>
       </c>
       <c r="K124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P124" s="3">
         <v>44253</v>
@@ -8602,7 +8605,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B125" t="s">
         <v>28</v>
@@ -8623,28 +8626,28 @@
         <v>23</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J125" t="s">
         <v>33</v>
       </c>
       <c r="K125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P125" s="3">
         <v>44172</v>
@@ -8655,16 +8658,16 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D126" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E126" t="s">
         <v>21</v>
@@ -8676,28 +8679,28 @@
         <v>23</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J126" t="s">
         <v>33</v>
       </c>
       <c r="K126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P126" s="3">
         <v>44253</v>
@@ -8711,13 +8714,13 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
         <v>20</v>
@@ -8732,28 +8735,28 @@
         <v>23</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J127" t="s">
         <v>26</v>
       </c>
       <c r="K127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P127" s="3">
         <v>44172</v>
@@ -8764,16 +8767,16 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E128" t="s">
         <v>21</v>
@@ -8785,28 +8788,28 @@
         <v>23</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J128" t="s">
         <v>26</v>
       </c>
       <c r="K128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P128" s="3">
         <v>44172</v>
@@ -8817,7 +8820,7 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
         <v>28</v>
@@ -8838,28 +8841,28 @@
         <v>23</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J129" t="s">
         <v>33</v>
       </c>
       <c r="K129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P129" s="3">
         <v>44172</v>
@@ -8870,7 +8873,7 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -8891,28 +8894,28 @@
         <v>23</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J130" t="s">
         <v>33</v>
       </c>
       <c r="K130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P130" s="3">
         <v>44172</v>
@@ -8923,7 +8926,7 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B131" t="s">
         <v>28</v>
@@ -8944,28 +8947,28 @@
         <v>23</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J131" t="s">
         <v>33</v>
       </c>
       <c r="K131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P131" s="3">
         <v>44172</v>
@@ -8976,16 +8979,16 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C132" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D132" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E132" t="s">
         <v>21</v>
@@ -8997,28 +9000,28 @@
         <v>23</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J132" t="s">
         <v>33</v>
       </c>
       <c r="K132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P132" s="3">
         <v>44253</v>
@@ -9032,13 +9035,13 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -9053,28 +9056,28 @@
         <v>23</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J133" t="s">
         <v>33</v>
       </c>
       <c r="K133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P133" s="3">
         <v>44253</v>
@@ -9088,7 +9091,7 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B134" t="s">
         <v>28</v>
@@ -9097,7 +9100,7 @@
         <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E134" t="s">
         <v>21</v>
@@ -9109,28 +9112,28 @@
         <v>23</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J134" t="s">
         <v>26</v>
       </c>
       <c r="K134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P134" s="3">
         <v>44172</v>
@@ -9141,7 +9144,7 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B135" t="s">
         <v>28</v>
@@ -9162,28 +9165,28 @@
         <v>23</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J135" t="s">
         <v>33</v>
       </c>
       <c r="K135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P135" s="3">
         <v>44172</v>
@@ -9194,13 +9197,13 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D136" t="s">
         <v>20</v>
@@ -9215,28 +9218,28 @@
         <v>23</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I136" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J136" t="s">
+        <v>26</v>
+      </c>
+      <c r="K136" t="s">
         <v>276</v>
       </c>
-      <c r="J136" t="s">
-        <v>26</v>
-      </c>
-      <c r="K136" t="s">
-        <v>275</v>
-      </c>
       <c r="L136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P136" s="3">
         <v>44172</v>
@@ -9247,16 +9250,16 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C137" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D137" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E137" t="s">
         <v>40</v>
@@ -9268,28 +9271,28 @@
         <v>41</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J137" t="s">
         <v>26</v>
       </c>
       <c r="K137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P137" s="3">
         <v>44151</v>
@@ -9303,49 +9306,49 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B138" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" t="s">
+        <v>281</v>
+      </c>
+      <c r="D138" t="s">
+        <v>281</v>
+      </c>
+      <c r="E138" t="s">
+        <v>282</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J138" t="s">
+        <v>26</v>
+      </c>
+      <c r="K138" t="s">
         <v>279</v>
       </c>
-      <c r="C138" t="s">
-        <v>280</v>
-      </c>
-      <c r="D138" t="s">
-        <v>280</v>
-      </c>
-      <c r="E138" t="s">
-        <v>281</v>
-      </c>
-      <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J138" t="s">
-        <v>26</v>
-      </c>
-      <c r="K138" t="s">
-        <v>278</v>
-      </c>
       <c r="L138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P138" s="3">
         <v>44253</v>
@@ -9359,49 +9362,49 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" t="s">
+        <v>281</v>
+      </c>
+      <c r="D139" t="s">
+        <v>281</v>
+      </c>
+      <c r="E139" t="s">
         <v>282</v>
       </c>
-      <c r="B139" t="s">
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J139" t="s">
+        <v>135</v>
+      </c>
+      <c r="K139" t="s">
         <v>283</v>
       </c>
-      <c r="C139" t="s">
-        <v>280</v>
-      </c>
-      <c r="D139" t="s">
-        <v>280</v>
-      </c>
-      <c r="E139" t="s">
-        <v>281</v>
-      </c>
-      <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J139" t="s">
-        <v>134</v>
-      </c>
-      <c r="K139" t="s">
-        <v>282</v>
-      </c>
       <c r="L139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P139" s="3">
         <v>44253</v>
@@ -9415,49 +9418,49 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B140" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F140" t="s">
         <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J140" t="s">
         <v>26</v>
       </c>
       <c r="K140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P140" s="3">
         <v>44253</v>
@@ -9471,49 +9474,49 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" t="s">
+        <v>287</v>
+      </c>
+      <c r="D141" t="s">
+        <v>287</v>
+      </c>
+      <c r="E141" t="s">
+        <v>282</v>
+      </c>
+      <c r="F141" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J141" t="s">
+        <v>135</v>
+      </c>
+      <c r="K141" t="s">
         <v>286</v>
       </c>
-      <c r="C141" t="s">
+      <c r="L141" t="s">
         <v>286</v>
       </c>
-      <c r="D141" t="s">
+      <c r="M141" t="s">
         <v>286</v>
       </c>
-      <c r="E141" t="s">
-        <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J141" t="s">
-        <v>134</v>
-      </c>
-      <c r="K141" t="s">
-        <v>285</v>
-      </c>
-      <c r="L141" t="s">
-        <v>285</v>
-      </c>
-      <c r="M141" t="s">
-        <v>285</v>
-      </c>
       <c r="N141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P141" s="3">
         <v>44253</v>
@@ -9527,49 +9530,49 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F142" t="s">
         <v>22</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J142" t="s">
         <v>26</v>
       </c>
       <c r="K142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P142" s="3">
         <v>44253</v>
@@ -9583,49 +9586,49 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" t="s">
+        <v>290</v>
+      </c>
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
+        <v>281</v>
+      </c>
+      <c r="D143" t="s">
+        <v>281</v>
+      </c>
+      <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J143" t="s">
+        <v>26</v>
+      </c>
+      <c r="K143" t="s">
+        <v>290</v>
+      </c>
+      <c r="L143" t="s">
         <v>289</v>
       </c>
-      <c r="B143" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" t="s">
-        <v>280</v>
-      </c>
-      <c r="D143" t="s">
-        <v>280</v>
-      </c>
-      <c r="E143" t="s">
-        <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J143" t="s">
-        <v>26</v>
-      </c>
-      <c r="K143" t="s">
+      <c r="M143" t="s">
         <v>289</v>
       </c>
-      <c r="L143" t="s">
-        <v>288</v>
-      </c>
-      <c r="M143" t="s">
-        <v>288</v>
-      </c>
       <c r="N143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P143" s="3">
         <v>44253</v>
@@ -9639,49 +9642,49 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
         <v>22</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J144" t="s">
         <v>26</v>
       </c>
       <c r="K144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P144" s="3">
         <v>44253</v>
@@ -9695,49 +9698,49 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" t="s">
+        <v>281</v>
+      </c>
+      <c r="D145" t="s">
+        <v>281</v>
+      </c>
+      <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J145" t="s">
+        <v>26</v>
+      </c>
+      <c r="K145" t="s">
+        <v>294</v>
+      </c>
+      <c r="L145" t="s">
         <v>292</v>
       </c>
-      <c r="C145" t="s">
-        <v>280</v>
-      </c>
-      <c r="D145" t="s">
-        <v>280</v>
-      </c>
-      <c r="E145" t="s">
-        <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J145" t="s">
-        <v>26</v>
-      </c>
-      <c r="K145" t="s">
-        <v>293</v>
-      </c>
-      <c r="L145" t="s">
-        <v>291</v>
-      </c>
       <c r="M145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P145" s="3">
         <v>44253</v>
@@ -9751,49 +9754,49 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" t="s">
+        <v>281</v>
+      </c>
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J146" t="s">
+        <v>26</v>
+      </c>
+      <c r="K146" t="s">
         <v>294</v>
       </c>
-      <c r="B146" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" t="s">
-        <v>280</v>
-      </c>
-      <c r="D146" t="s">
-        <v>280</v>
-      </c>
-      <c r="E146" t="s">
-        <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J146" t="s">
-        <v>26</v>
-      </c>
-      <c r="K146" t="s">
-        <v>293</v>
-      </c>
       <c r="L146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P146" s="3">
         <v>44253</v>
@@ -9807,49 +9810,49 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
         <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J147" t="s">
         <v>26</v>
       </c>
       <c r="K147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P147" s="3">
         <v>44253</v>
@@ -9863,49 +9866,49 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J148" t="s">
         <v>26</v>
       </c>
       <c r="K148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P148" s="3">
         <v>44253</v>
@@ -9919,7 +9922,7 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
         <v>28</v>
@@ -9940,28 +9943,28 @@
         <v>23</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J149" t="s">
         <v>33</v>
       </c>
       <c r="K149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O149" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P149" s="3">
         <v>44172</v>
@@ -9972,13 +9975,13 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D150" t="s">
         <v>20</v>
@@ -9993,28 +9996,28 @@
         <v>23</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J150" t="s">
         <v>26</v>
       </c>
       <c r="K150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P150" s="3">
         <v>44172</v>
@@ -10025,13 +10028,13 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" t="s">
         <v>301</v>
       </c>
-      <c r="B151" t="s">
-        <v>300</v>
-      </c>
       <c r="C151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D151" t="s">
         <v>20</v>
@@ -10046,28 +10049,28 @@
         <v>23</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J151" t="s">
         <v>26</v>
       </c>
       <c r="K151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O151" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P151" s="3">
         <v>44172</v>
@@ -10078,13 +10081,13 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C152" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D152" t="s">
         <v>20</v>
@@ -10099,28 +10102,28 @@
         <v>23</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J152" t="s">
         <v>26</v>
       </c>
       <c r="K152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O152" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P152" s="3">
         <v>44172</v>
@@ -10131,13 +10134,13 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D153" t="s">
         <v>20</v>
@@ -10152,28 +10155,28 @@
         <v>23</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J153" t="s">
         <v>26</v>
       </c>
       <c r="K153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P153" s="3">
         <v>44172</v>
@@ -10184,13 +10187,13 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D154" t="s">
         <v>20</v>
@@ -10205,28 +10208,28 @@
         <v>23</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J154" t="s">
         <v>26</v>
       </c>
       <c r="K154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P154" s="3">
         <v>44172</v>
@@ -10237,16 +10240,16 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D155" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E155" t="s">
         <v>40</v>
@@ -10258,28 +10261,28 @@
         <v>41</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J155" t="s">
         <v>26</v>
       </c>
       <c r="K155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P155" s="3">
         <v>44172</v>
@@ -10289,9 +10292,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R155">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
